--- a/Energy Consumption4.xlsx
+++ b/Energy Consumption4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.027046550580111</v>
+        <v>5.991447168658981</v>
       </c>
       <c r="C2" t="n">
-        <v>5.015607293387396</v>
+        <v>2.491189000677316</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.969808375222119</v>
+        <v>7.553647287603898</v>
       </c>
       <c r="C3" t="n">
-        <v>9.75132808416129</v>
+        <v>5.308026905412556</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.931526994979096</v>
+        <v>8.97351535407549</v>
       </c>
       <c r="C4" t="n">
-        <v>14.07571635600983</v>
+        <v>7.970697773261305</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.455874598535537</v>
+        <v>9.502765294463623</v>
       </c>
       <c r="C5" t="n">
-        <v>18.54904973612969</v>
+        <v>10.59610199492633</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.552507106630289</v>
+        <v>9.76890494358604</v>
       </c>
       <c r="C6" t="n">
-        <v>23.65469793052412</v>
+        <v>13.05406209436645</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.55857525093159</v>
+        <v>11.03875545935195</v>
       </c>
       <c r="C7" t="n">
-        <v>28.25897624673928</v>
+        <v>15.75176644168219</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.47818730979427</v>
+        <v>16.51028764101113</v>
       </c>
       <c r="C8" t="n">
-        <v>32.99812593454352</v>
+        <v>18.38571699399124</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.94638889770661</v>
+        <v>18.48159174730587</v>
       </c>
       <c r="C9" t="n">
-        <v>37.55019433516242</v>
+        <v>21.05375390917795</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.56906573453169</v>
+        <v>20.37008767784808</v>
       </c>
       <c r="C10" t="n">
-        <v>42.36707376558836</v>
+        <v>23.59667721424405</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18.17686749268685</v>
+        <v>20.94986247447342</v>
       </c>
       <c r="C11" t="n">
-        <v>47.60657016647815</v>
+        <v>26.46998769500571</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.23912038971625</v>
+        <v>23.61217926183835</v>
       </c>
       <c r="C12" t="n">
-        <v>52.13862037337057</v>
+        <v>29.39756608037219</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.79770797327679</v>
+        <v>23.790546128254</v>
       </c>
       <c r="C13" t="n">
-        <v>56.80902953019697</v>
+        <v>31.84550543824598</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.0911325436017</v>
+        <v>24.36752059986437</v>
       </c>
       <c r="C14" t="n">
-        <v>61.34144663992368</v>
+        <v>34.91670648996631</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.69255445303359</v>
+        <v>25.46758679449792</v>
       </c>
       <c r="C15" t="n">
-        <v>65.39101340611256</v>
+        <v>37.74307846494585</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>26.51191593504173</v>
+        <v>28.62412791623088</v>
       </c>
       <c r="C16" t="n">
-        <v>69.86490610747148</v>
+        <v>40.37325119781437</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.12711609056304</v>
+        <v>30.57779685158517</v>
       </c>
       <c r="C17" t="n">
-        <v>74.49959914280167</v>
+        <v>43.12755947402447</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>31.403790398138</v>
+        <v>34.111869239285</v>
       </c>
       <c r="C18" t="n">
-        <v>79.12056659342578</v>
+        <v>46.11002434557073</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34.41165662768868</v>
+        <v>35.06856897145691</v>
       </c>
       <c r="C19" t="n">
-        <v>83.5660534156892</v>
+        <v>48.58350262917232</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.89657251441411</v>
+        <v>37.53826485290286</v>
       </c>
       <c r="C20" t="n">
-        <v>87.99857344757943</v>
+        <v>51.15165500868702</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>38.24202489788116</v>
+        <v>40.02571042475367</v>
       </c>
       <c r="C21" t="n">
-        <v>92.57720042105292</v>
+        <v>53.8294136002698</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>39.19285013917729</v>
+        <v>42.57091060949232</v>
       </c>
       <c r="C22" t="n">
-        <v>97.13899939586437</v>
+        <v>56.58114307130248</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>41.35849550100644</v>
+        <v>45.75081368089247</v>
       </c>
       <c r="C23" t="n">
-        <v>101.713953116166</v>
+        <v>59.22775605894903</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>46.03013906193355</v>
+        <v>48.68522483378318</v>
       </c>
       <c r="C24" t="n">
-        <v>106.2431532802234</v>
+        <v>62.4107562106937</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.07803780624011</v>
+        <v>49.10015834519454</v>
       </c>
       <c r="C25" t="n">
-        <v>110.7700730141936</v>
+        <v>65.13662112326833</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52.10824068813664</v>
+        <v>52.05214139030311</v>
       </c>
       <c r="C26" t="n">
-        <v>115.544144950827</v>
+        <v>67.69692320125336</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>53.6183442285126</v>
+        <v>53.33118676499563</v>
       </c>
       <c r="C27" t="n">
-        <v>120.1577123096417</v>
+        <v>70.27287967232822</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55.18486877986281</v>
+        <v>54.55045537017131</v>
       </c>
       <c r="C28" t="n">
-        <v>124.8785910696713</v>
+        <v>72.54610971052402</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>58.59616687604076</v>
+        <v>55.27318176760544</v>
       </c>
       <c r="C29" t="n">
-        <v>130.0817578419511</v>
+        <v>75.4535483700629</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>61.82878990448892</v>
+        <v>57.21155732935492</v>
       </c>
       <c r="C30" t="n">
-        <v>134.928305643989</v>
+        <v>78.07614666271212</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>64.49669950655635</v>
+        <v>58.78544254228267</v>
       </c>
       <c r="C31" t="n">
-        <v>140.2534022008762</v>
+        <v>80.73297759496231</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>66.03986338262087</v>
+        <v>59.08653849260632</v>
       </c>
       <c r="C32" t="n">
-        <v>144.4078956211046</v>
+        <v>83.48865774221173</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.09401192900219</v>
+        <v>60.55700120896246</v>
       </c>
       <c r="C33" t="n">
-        <v>149.4682611311773</v>
+        <v>86.60187388146996</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69.03076221197477</v>
+        <v>61.08942347169119</v>
       </c>
       <c r="C34" t="n">
-        <v>154.0150819573746</v>
+        <v>89.32237183076558</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>71.29315487214406</v>
+        <v>63.70488118465479</v>
       </c>
       <c r="C35" t="n">
-        <v>158.7094528088138</v>
+        <v>92.00638021722325</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>74.31206377881963</v>
+        <v>65.93817406507419</v>
       </c>
       <c r="C36" t="n">
-        <v>163.8017547865525</v>
+        <v>94.70032574078766</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>75.90674279015472</v>
+        <v>67.83808843508643</v>
       </c>
       <c r="C37" t="n">
-        <v>168.492116831894</v>
+        <v>97.33147533118648</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>78.03711630965218</v>
+        <v>70.15170793608013</v>
       </c>
       <c r="C38" t="n">
-        <v>173.0790334646085</v>
+        <v>100.0859080319831</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>82.06805450334726</v>
+        <v>72.43047020906285</v>
       </c>
       <c r="C39" t="n">
-        <v>177.7920255849588</v>
+        <v>102.6741104127252</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>82.52560889947601</v>
+        <v>74.65459814332687</v>
       </c>
       <c r="C40" t="n">
-        <v>182.3747660805261</v>
+        <v>105.329827278619</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84.44258492313971</v>
+        <v>75.71330306555116</v>
       </c>
       <c r="C41" t="n">
-        <v>187.3286636448407</v>
+        <v>107.9570459288677</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84.91210932079143</v>
+        <v>78.54441231709049</v>
       </c>
       <c r="C42" t="n">
-        <v>191.8630965044744</v>
+        <v>110.7301012896943</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>85.15729473336617</v>
+        <v>79.6293050329584</v>
       </c>
       <c r="C43" t="n">
-        <v>196.5222785503901</v>
+        <v>113.6781633172621</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>85.9624281418246</v>
+        <v>80.92008531908057</v>
       </c>
       <c r="C44" t="n">
-        <v>201.4242196523623</v>
+        <v>116.228814297003</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>87.11731024276622</v>
+        <v>81.84334921639241</v>
       </c>
       <c r="C45" t="n">
-        <v>205.6055007888108</v>
+        <v>119.0716907024139</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>90.08675974865388</v>
+        <v>92.13755480645804</v>
       </c>
       <c r="C46" t="n">
-        <v>210.3333709364074</v>
+        <v>121.6480316794211</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>91.11792605094325</v>
+        <v>92.75385600099858</v>
       </c>
       <c r="C47" t="n">
-        <v>214.8203472269993</v>
+        <v>124.2307982821843</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>93.07973611411221</v>
+        <v>93.60446988005721</v>
       </c>
       <c r="C48" t="n">
-        <v>219.6460089836532</v>
+        <v>126.9469451914802</v>
       </c>
     </row>
     <row r="49">
@@ -967,21 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>96.89734695637515</v>
+        <v>96.61530090904623</v>
       </c>
       <c r="C49" t="n">
-        <v>224.4020356803627</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>99.60933348925317</v>
-      </c>
-      <c r="C50" t="n">
-        <v>229.6326207742039</v>
+        <v>129.6359283558295</v>
       </c>
     </row>
   </sheetData>
